--- a/BOMs/Bill of Materials V1.xlsx
+++ b/BOMs/Bill of Materials V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redfa\Documents\GitHub\Radio-Telescope-RCA\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8085EB-17AD-470F-9128-558DD989A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E681224-0969-4799-B493-B1584C1AD3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECE411 BOM Template" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,24 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UTewmaGozpNC16K77T6LcarrwGYIMSvRj0w1FQRN+pk="/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>Last modified: 02/07/2025</t>
+  </si>
+  <si>
+    <t>PCB version: 1</t>
+  </si>
+  <si>
+    <t>BOM revision: 1</t>
+  </si>
   <si>
     <t>P/NP</t>
   </si>
@@ -65,7 +77,25 @@
     <t>Cost Ea.</t>
   </si>
   <si>
+    <t>Shipping</t>
+  </si>
+  <si>
     <t>Cost Total</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Mini Circuits</t>
+  </si>
+  <si>
+    <t>ZX60-P33ULN+</t>
+  </si>
+  <si>
+    <t>Connectorized SMA, Low Noise, Medium Power, Linear Amplifier, 400 MHz to 3000 MHz, 50Ω</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -86,16 +116,7 @@
     <t>v1.0</t>
   </si>
   <si>
-    <t>First Draft of Inclusive BOM</t>
-  </si>
-  <si>
-    <t>BOM revision: 1</t>
-  </si>
-  <si>
-    <t>PCB version: 1</t>
-  </si>
-  <si>
-    <t>Last modified: 2024-12-31</t>
+    <t>First Draft of Inclusive BOM, Added LNA.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,15 +156,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,7 +182,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -178,41 +201,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -430,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K987"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -444,13 +461,13 @@
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -461,10 +478,11 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -474,10 +492,11 @@
       <c r="G2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -485,24 +504,26 @@
       <c r="G3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -512,297 +533,409 @@
       <c r="G5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5">
+        <v>145.41</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15.69</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" ref="K7:K26" si="0">I7+J7</f>
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="12"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="12"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="12"/>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
+      <c r="K15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
+      <c r="K16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
+      <c r="K17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="14"/>
+      <c r="K18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="14"/>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="K20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="14"/>
+      <c r="K22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="4"/>
+      <c r="K23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="4"/>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="14"/>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="I27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="17">
-        <f>SUM(J7:J26)</f>
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13">
+        <f>SUM(K7:K26)</f>
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1">
       <c r="C28" s="4"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -813,860 +946,1061 @@
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>15</v>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="20">
-        <v>45610</v>
+        <v>25</v>
+      </c>
+      <c r="B32" s="16">
+        <v>45695</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="6"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="9:11" ht="12.75" customHeight="1">
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="9:11" ht="12.75" customHeight="1">
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="9:11" ht="12.75" customHeight="1">
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="9:11" ht="12.75" customHeight="1">
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="9:11" ht="12.75" customHeight="1">
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="9:11" ht="12.75" customHeight="1">
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="9:11" ht="12.75" customHeight="1">
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="9:11" ht="12.75" customHeight="1">
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="9:11" ht="12.75" customHeight="1">
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="9:11" ht="12.75" customHeight="1">
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="9:11" ht="12.75" customHeight="1">
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="9:11" ht="12.75" customHeight="1">
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="9:11" ht="12.75" customHeight="1">
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="9:11" ht="12.75" customHeight="1">
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="9:11" ht="12.75" customHeight="1">
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="9:11" ht="12.75" customHeight="1">
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="9:11" ht="12.75" customHeight="1">
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="9:11" ht="12.75" customHeight="1">
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="9:11" ht="12.75" customHeight="1">
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="9:11" ht="12.75" customHeight="1">
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="9:11" ht="12.75" customHeight="1">
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="9:11" ht="12.75" customHeight="1">
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="9:11" ht="12.75" customHeight="1">
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="9:11" ht="12.75" customHeight="1">
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="9:11" ht="12.75" customHeight="1">
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="9:11" ht="12.75" customHeight="1">
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="9:11" ht="12.75" customHeight="1">
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="9:11" ht="12.75" customHeight="1">
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="9:11" ht="12.75" customHeight="1">
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="9:11" ht="12.75" customHeight="1">
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="9:11" ht="12.75" customHeight="1">
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="9:11" ht="12.75" customHeight="1">
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="9:11" ht="12.75" customHeight="1">
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="9:11" ht="12.75" customHeight="1">
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="9:11" ht="12.75" customHeight="1">
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="9:11" ht="12.75" customHeight="1">
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="9:11" ht="12.75" customHeight="1">
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="9:11" ht="12.75" customHeight="1">
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="9:11" ht="12.75" customHeight="1">
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="9:11" ht="12.75" customHeight="1">
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="9:11" ht="12.75" customHeight="1">
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="9:11" ht="12.75" customHeight="1">
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="9:11" ht="12.75" customHeight="1">
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="9:11" ht="12.75" customHeight="1">
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="9:11" ht="12.75" customHeight="1">
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="9:11" ht="12.75" customHeight="1">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="9:11" ht="12.75" customHeight="1">
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="9:11" ht="12.75" customHeight="1">
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="9:11" ht="12.75" customHeight="1">
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="9:11" ht="12.75" customHeight="1">
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="9:11" ht="12.75" customHeight="1">
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="9:11" ht="12.75" customHeight="1">
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="9:11" ht="12.75" customHeight="1">
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="9:11" ht="12.75" customHeight="1">
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="9:11" ht="12.75" customHeight="1">
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="9:11" ht="12.75" customHeight="1">
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="9:11" ht="12.75" customHeight="1">
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="9:11" ht="12.75" customHeight="1">
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="9:11" ht="12.75" customHeight="1">
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="9:11" ht="12.75" customHeight="1">
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="9:11" ht="12.75" customHeight="1">
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="9:11" ht="12.75" customHeight="1">
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="9:11" ht="12.75" customHeight="1">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="9:11" ht="12.75" customHeight="1">
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="9:11" ht="12.75" customHeight="1">
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="9:11" ht="12.75" customHeight="1">
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="9:11" ht="12.75" customHeight="1">
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" spans="9:11" ht="12.75" customHeight="1">
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="9:11" ht="12.75" customHeight="1">
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="9:11" ht="12.75" customHeight="1">
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="9:11" ht="12.75" customHeight="1">
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="9:11" ht="12.75" customHeight="1">
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-    </row>
-    <row r="121" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="9:11" ht="12.75" customHeight="1">
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122" spans="9:11" ht="12.75" customHeight="1">
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="9:11" ht="12.75" customHeight="1">
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K123" s="5"/>
+    </row>
+    <row r="124" spans="9:11" ht="12.75" customHeight="1">
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K124" s="5"/>
+    </row>
+    <row r="125" spans="9:11" ht="12.75" customHeight="1">
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126" spans="9:11" ht="12.75" customHeight="1">
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" spans="9:11" ht="12.75" customHeight="1">
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" spans="9:11" ht="12.75" customHeight="1">
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K128" s="5"/>
+    </row>
+    <row r="129" spans="9:11" ht="12.75" customHeight="1">
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K129" s="5"/>
+    </row>
+    <row r="130" spans="9:11" ht="12.75" customHeight="1">
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-    </row>
-    <row r="131" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131" spans="9:11" ht="12.75" customHeight="1">
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132" spans="9:11" ht="12.75" customHeight="1">
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-    </row>
-    <row r="133" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="9:11" ht="12.75" customHeight="1">
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="9:11" ht="12.75" customHeight="1">
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="9:11" ht="12.75" customHeight="1">
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="9:11" ht="12.75" customHeight="1">
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-    </row>
-    <row r="137" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="9:11" ht="12.75" customHeight="1">
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="9:11" ht="12.75" customHeight="1">
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="9:11" ht="12.75" customHeight="1">
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-    </row>
-    <row r="140" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="9:11" ht="12.75" customHeight="1">
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-    </row>
-    <row r="141" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="9:11" ht="12.75" customHeight="1">
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="9:11" ht="12.75" customHeight="1">
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143" spans="9:11" ht="12.75" customHeight="1">
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-    </row>
-    <row r="144" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="9:11" ht="12.75" customHeight="1">
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-    </row>
-    <row r="145" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145" spans="9:11" ht="12.75" customHeight="1">
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="9:11" ht="12.75" customHeight="1">
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-    </row>
-    <row r="147" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="9:11" ht="12.75" customHeight="1">
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-    </row>
-    <row r="148" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="9:11" ht="12.75" customHeight="1">
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-    </row>
-    <row r="149" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="9:11" ht="12.75" customHeight="1">
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-    </row>
-    <row r="150" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="9:11" ht="12.75" customHeight="1">
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="9:11" ht="12.75" customHeight="1">
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="9:11" ht="12.75" customHeight="1">
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="9:11" ht="12.75" customHeight="1">
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154" spans="9:11" ht="12.75" customHeight="1">
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="9:11" ht="12.75" customHeight="1">
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="9:11" ht="12.75" customHeight="1">
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="9:11" ht="12.75" customHeight="1">
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-    </row>
-    <row r="158" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158" spans="9:11" ht="12.75" customHeight="1">
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="9:11" ht="12.75" customHeight="1">
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="9:11" ht="12.75" customHeight="1">
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="9:11" ht="12.75" customHeight="1">
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="9:11" ht="12.75" customHeight="1">
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="9:11" ht="12.75" customHeight="1">
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="9:11" ht="12.75" customHeight="1">
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="9:11" ht="12.75" customHeight="1">
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="9:11" ht="12.75" customHeight="1">
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="9:11" ht="12.75" customHeight="1">
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="9:11" ht="12.75" customHeight="1">
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169" spans="9:11" ht="12.75" customHeight="1">
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170" spans="9:11" ht="12.75" customHeight="1">
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171" spans="9:11" ht="12.75" customHeight="1">
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172" spans="9:11" ht="12.75" customHeight="1">
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173" spans="9:11" ht="12.75" customHeight="1">
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174" spans="9:11" ht="12.75" customHeight="1">
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175" spans="9:11" ht="12.75" customHeight="1">
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" spans="9:11" ht="12.75" customHeight="1">
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177" spans="9:11" ht="12.75" customHeight="1">
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K177" s="5"/>
+    </row>
+    <row r="178" spans="9:11" ht="12.75" customHeight="1">
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179" spans="9:11" ht="12.75" customHeight="1">
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="9:11" ht="12.75" customHeight="1">
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181" spans="9:11" ht="12.75" customHeight="1">
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182" spans="9:11" ht="12.75" customHeight="1">
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="9:11" ht="12.75" customHeight="1">
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184" spans="9:11" ht="12.75" customHeight="1">
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185" spans="9:11" ht="12.75" customHeight="1">
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K185" s="5"/>
+    </row>
+    <row r="186" spans="9:11" ht="12.75" customHeight="1">
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-    </row>
-    <row r="187" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187" spans="9:11" ht="12.75" customHeight="1">
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="9:11" ht="12.75" customHeight="1">
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K188" s="5"/>
+    </row>
+    <row r="189" spans="9:11" ht="12.75" customHeight="1">
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K189" s="5"/>
+    </row>
+    <row r="190" spans="9:11" ht="12.75" customHeight="1">
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191" spans="9:11" ht="12.75" customHeight="1">
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K191" s="5"/>
+    </row>
+    <row r="192" spans="9:11" ht="12.75" customHeight="1">
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193" spans="9:11" ht="12.75" customHeight="1">
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="9:11" ht="12.75" customHeight="1">
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="9:11" ht="12.75" customHeight="1">
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K195" s="5"/>
+    </row>
+    <row r="196" spans="9:11" ht="12.75" customHeight="1">
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-    </row>
-    <row r="197" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="9:11" ht="12.75" customHeight="1">
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K197" s="5"/>
+    </row>
+    <row r="198" spans="9:11" ht="12.75" customHeight="1">
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K198" s="5"/>
+    </row>
+    <row r="199" spans="9:11" ht="12.75" customHeight="1">
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="9:11" ht="12.75" customHeight="1">
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201" spans="9:11" ht="12.75" customHeight="1">
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K201" s="5"/>
+    </row>
+    <row r="202" spans="9:11" ht="12.75" customHeight="1">
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K202" s="5"/>
+    </row>
+    <row r="203" spans="9:11" ht="12.75" customHeight="1">
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K203" s="5"/>
+    </row>
+    <row r="204" spans="9:11" ht="12.75" customHeight="1">
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K204" s="5"/>
+    </row>
+    <row r="205" spans="9:11" ht="12.75" customHeight="1">
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-    </row>
-    <row r="206" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="9:11" ht="12.75" customHeight="1">
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-    </row>
-    <row r="207" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="9:11" ht="12.75" customHeight="1">
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-    </row>
-    <row r="208" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="9:11" ht="12.75" customHeight="1">
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-    </row>
-    <row r="209" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="9:11" ht="12.75" customHeight="1">
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-    </row>
-    <row r="210" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="9:11" ht="12.75" customHeight="1">
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-    </row>
-    <row r="211" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="9:11" ht="12.75" customHeight="1">
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-    </row>
-    <row r="212" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="9:11" ht="12.75" customHeight="1">
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-    </row>
-    <row r="213" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="9:11" ht="12.75" customHeight="1">
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-    </row>
-    <row r="214" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="9:11" ht="12.75" customHeight="1">
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-    </row>
-    <row r="215" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="9:11" ht="12.75" customHeight="1">
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-    </row>
-    <row r="216" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216" spans="9:11" ht="12.75" customHeight="1">
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-    </row>
-    <row r="217" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217" spans="9:11" ht="12.75" customHeight="1">
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-    </row>
-    <row r="218" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="9:11" ht="12.75" customHeight="1">
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-    </row>
-    <row r="219" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="9:11" ht="12.75" customHeight="1">
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-    </row>
-    <row r="220" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="9:11" ht="12.75" customHeight="1">
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-    </row>
-    <row r="221" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="9:11" ht="12.75" customHeight="1">
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-    </row>
-    <row r="222" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="9:11" ht="12.75" customHeight="1">
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-    </row>
-    <row r="223" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="9:11" ht="12.75" customHeight="1">
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-    </row>
-    <row r="224" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224" spans="9:11" ht="12.75" customHeight="1">
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-    </row>
-    <row r="225" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225" spans="9:11" ht="12.75" customHeight="1">
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-    </row>
-    <row r="226" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226" spans="9:11" ht="12.75" customHeight="1">
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-    </row>
-    <row r="227" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227" spans="9:11" ht="12.75" customHeight="1">
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-    </row>
-    <row r="228" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228" spans="9:11" ht="12.75" customHeight="1">
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-    </row>
-    <row r="229" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229" spans="9:11" ht="12.75" customHeight="1">
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-    </row>
-    <row r="230" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K229" s="5"/>
+    </row>
+    <row r="230" spans="9:11" ht="12.75" customHeight="1">
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-    </row>
-    <row r="231" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K230" s="5"/>
+    </row>
+    <row r="231" spans="9:11" ht="12.75" customHeight="1">
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-    </row>
-    <row r="232" spans="9:10" ht="12.75" customHeight="1">
+      <c r="K231" s="5"/>
+    </row>
+    <row r="232" spans="9:11" ht="12.75" customHeight="1">
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-    </row>
-    <row r="233" spans="9:10" ht="12.75" customHeight="1">
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-    </row>
-    <row r="234" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="235" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="236" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="237" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="238" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="239" spans="9:10" ht="15.75" customHeight="1"/>
-    <row r="240" spans="9:10" ht="15.75" customHeight="1"/>
+      <c r="K232" s="5"/>
+    </row>
+    <row r="233" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="234" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="235" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="236" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="237" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="238" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="239" spans="9:11" ht="15.75" customHeight="1"/>
+    <row r="240" spans="9:11" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -2414,7 +2748,24 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1.6666666666666701" bottom="1.6666666666666701" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
